--- a/api_test_Framework/test_api_data.xlsx
+++ b/api_test_Framework/test_api_data.xlsx
@@ -740,7 +740,7 @@
         <v>27</v>
       </c>
       <c r="B1" s="6" t="n">
-        <v>18800000027</v>
+        <v>18800000037</v>
       </c>
     </row>
   </sheetData>

--- a/api_test_Framework/test_api_data.xlsx
+++ b/api_test_Framework/test_api_data.xlsx
@@ -740,7 +740,7 @@
         <v>27</v>
       </c>
       <c r="B1" s="6" t="n">
-        <v>18800000037</v>
+        <v>18800000045</v>
       </c>
     </row>
   </sheetData>
